--- a/data/winners.xlsx
+++ b/data/winners.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,72 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>四等奖</t>
+          <t>一等奖</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46-奚雨泽</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>20-杨静宜</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>15-冯悦然</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6-吴逸飞</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>41-章睿泽</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>四等奖</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>25-吕晨阳</t>
         </is>
       </c>
     </row>
